--- a/public/assets/tempfiles/SubjectiveQuestionBank.xlsx
+++ b/public/assets/tempfiles/SubjectiveQuestionBank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
   <si>
     <t xml:space="preserve">instId</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">GPK</t>
   </si>
   <si>
-    <t xml:space="preserve">ITE410</t>
+    <t xml:space="preserve">CS101</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -71,30 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://localhost/images/jpg.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost/images/website</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.jpg</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -156,12 +132,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -190,24 +173,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,13 +275,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
@@ -369,17 +356,532 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="http://localhost/images/website"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="77" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/assets/tempfiles/SubjectiveQuestionBank.xlsx
+++ b/public/assets/tempfiles/SubjectiveQuestionBank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="17">
   <si>
     <t xml:space="preserve">instId</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">GPK</t>
   </si>
   <si>
-    <t xml:space="preserve">CS101</t>
+    <t xml:space="preserve">CS201</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -275,13 +275,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:K20"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
@@ -881,6 +881,615 @@
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
